--- a/order_template.xlsx
+++ b/order_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Dev Projects/Clays POD/CLAYS-POD-Order-Processing-Tool-No-Repo-Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Dev Projects/Clays POD/CLAYS-POD-Order-Processing-Tool-USE THIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D0E79-87BB-8249-9423-6D46F116D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3D580-0614-CA4D-8A40-663F3CECD73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D2AF0AF3-96A0-1546-9CE7-F154F630DA13}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ISBN</t>
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E52B683-CAFC-8D4C-901A-2C7ACE979C35}">
-  <dimension ref="A1:B2001"/>
+  <dimension ref="A1:C2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2001" sqref="B2:B2001"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,34 +438,34 @@
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2">
-        <v>20</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/order_template.xlsx
+++ b/order_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Dev Projects/Clays POD/CLAYS-POD-Order-Processing-Tool-USE THIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Documents/GitHub/CLAYS-POD-Order-Processing-Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3D580-0614-CA4D-8A40-663F3CECD73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D291A984-3FFB-044F-946D-1C786D4FF00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D2AF0AF3-96A0-1546-9CE7-F154F630DA13}"/>
   </bookViews>
@@ -36,15 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ISBN</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>Title</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Rem</t>
+  </si>
+  <si>
+    <t>Master</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E52B683-CAFC-8D4C-901A-2C7ACE979C35}">
-  <dimension ref="A1:C2001"/>
+  <dimension ref="A1:D2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,34 +441,37 @@
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
